--- a/us06_unit_time_scaled_current.xlsx
+++ b/us06_unit_time_scaled_current.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>scaled_current</t>
+  </si>
   <si>
     <t>time</t>
   </si>
@@ -57,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -69,16 +75,18 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -92,15 +100,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -108,7 +116,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -116,7 +124,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -124,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -132,7 +140,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -140,7 +148,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -148,7 +156,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -156,7 +164,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0">
-        <v>0.02027623816575834</v>
+        <v>-0.02027623816575834</v>
       </c>
     </row>
     <row r="9">
@@ -164,7 +172,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0">
-        <v>0.087201752183782802</v>
+        <v>-0.087201752183782802</v>
       </c>
     </row>
     <row r="10">
@@ -172,7 +180,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0">
-        <v>0.14981633655704921</v>
+        <v>-0.14981633655704921</v>
       </c>
     </row>
     <row r="11">
@@ -180,7 +188,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0">
-        <v>1.0013993518340021</v>
+        <v>-1.0013993518340021</v>
       </c>
     </row>
     <row r="12">
@@ -188,7 +196,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0">
-        <v>8.8146209363917194</v>
+        <v>-8.8146209363917194</v>
       </c>
     </row>
     <row r="13">
@@ -196,7 +204,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0">
-        <v>25.470187328138575</v>
+        <v>-25.470187328138575</v>
       </c>
     </row>
     <row r="14">
@@ -204,7 +212,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>31.266147452979414</v>
+        <v>-31.266147452979414</v>
       </c>
     </row>
     <row r="15">
@@ -212,7 +220,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="0">
-        <v>14.694464413462452</v>
+        <v>-14.694464413462452</v>
       </c>
     </row>
     <row r="16">
@@ -220,7 +228,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0">
-        <v>8.6992005926998122</v>
+        <v>-8.6992005926998122</v>
       </c>
     </row>
     <row r="17">
@@ -228,7 +236,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0">
-        <v>26.841524390216346</v>
+        <v>-26.841524390216346</v>
       </c>
     </row>
     <row r="18">
@@ -236,7 +244,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0">
-        <v>26.097757141106442</v>
+        <v>-26.097757141106442</v>
       </c>
     </row>
     <row r="19">
@@ -244,7 +252,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0">
-        <v>18.951691669777706</v>
+        <v>-18.951691669777706</v>
       </c>
     </row>
     <row r="20">
@@ -252,7 +260,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0">
-        <v>18.216079103335503</v>
+        <v>-18.216079103335503</v>
       </c>
     </row>
     <row r="21">
@@ -260,7 +268,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0">
-        <v>17.296776493922604</v>
+        <v>-17.296776493922604</v>
       </c>
     </row>
     <row r="22">
@@ -268,7 +276,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="0">
-        <v>20.129265583717881</v>
+        <v>-20.129265583717881</v>
       </c>
     </row>
     <row r="23">
@@ -276,7 +284,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="0">
-        <v>22.009563193988658</v>
+        <v>-22.009563193988658</v>
       </c>
     </row>
     <row r="24">
@@ -284,7 +292,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="0">
-        <v>12.275015546400024</v>
+        <v>-12.275015546400024</v>
       </c>
     </row>
     <row r="25">
@@ -292,7 +300,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.3014260761152846</v>
+        <v>0.3014260761152846</v>
       </c>
     </row>
     <row r="26">
@@ -300,7 +308,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="0">
-        <v>-6.2393513633095301</v>
+        <v>6.2393513633095301</v>
       </c>
     </row>
     <row r="27">
@@ -308,7 +316,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="0">
-        <v>-13.16201934682678</v>
+        <v>13.16201934682678</v>
       </c>
     </row>
     <row r="28">
@@ -316,7 +324,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="0">
-        <v>-13.842574884560227</v>
+        <v>13.842574884560227</v>
       </c>
     </row>
     <row r="29">
@@ -324,7 +332,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="0">
-        <v>-7.0793340972557015</v>
+        <v>7.0793340972557015</v>
       </c>
     </row>
     <row r="30">
@@ -332,7 +340,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="0">
-        <v>-2.1953600576787311</v>
+        <v>2.1953600576787311</v>
       </c>
     </row>
     <row r="31">
@@ -340,7 +348,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="0">
-        <v>4.9691004256300504</v>
+        <v>-4.9691004256300504</v>
       </c>
     </row>
     <row r="32">
@@ -348,7 +356,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="0">
-        <v>3.2394732080456414</v>
+        <v>-3.2394732080456414</v>
       </c>
     </row>
     <row r="33">
@@ -356,7 +364,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="0">
-        <v>-0.42482043817884751</v>
+        <v>0.42482043817884751</v>
       </c>
     </row>
     <row r="34">
@@ -364,7 +372,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="0">
-        <v>-8.7381771364077601</v>
+        <v>8.7381771364077601</v>
       </c>
     </row>
     <row r="35">
@@ -372,7 +380,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="0">
-        <v>-24.516949338851571</v>
+        <v>24.516949338851571</v>
       </c>
     </row>
     <row r="36">
@@ -380,7 +388,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="0">
-        <v>-29.751947394779059</v>
+        <v>29.751947394779059</v>
       </c>
     </row>
     <row r="37">
@@ -388,7 +396,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="0">
-        <v>-28.801663108060279</v>
+        <v>28.801663108060279</v>
       </c>
     </row>
     <row r="38">
@@ -396,7 +404,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="0">
-        <v>-24.324094213324539</v>
+        <v>24.324094213324539</v>
       </c>
     </row>
     <row r="39">
@@ -404,7 +412,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="0">
-        <v>-20.064565919073988</v>
+        <v>20.064565919073988</v>
       </c>
     </row>
     <row r="40">
@@ -412,7 +420,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="0">
-        <v>-14.455011647152558</v>
+        <v>14.455011647152558</v>
       </c>
     </row>
     <row r="41">
@@ -420,7 +428,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="0">
-        <v>-6.6642720247908116</v>
+        <v>6.6642720247908116</v>
       </c>
     </row>
     <row r="42">
@@ -428,7 +436,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.77896808955868024</v>
+        <v>0.77896808955868024</v>
       </c>
     </row>
     <row r="43">
@@ -436,7 +444,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -444,7 +452,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -452,7 +460,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -460,7 +468,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -468,7 +476,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -476,7 +484,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -484,7 +492,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -492,7 +500,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -500,7 +508,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="0">
-        <v>0.86998772889092546</v>
+        <v>-0.86998772889092546</v>
       </c>
     </row>
     <row r="52">
@@ -508,7 +516,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="0">
-        <v>15.923877569645887</v>
+        <v>-15.923877569645887</v>
       </c>
     </row>
     <row r="53">
@@ -516,7 +524,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="0">
-        <v>16.641662859709864</v>
+        <v>-16.641662859709864</v>
       </c>
     </row>
     <row r="54">
@@ -524,7 +532,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="0">
-        <v>16.589513241529865</v>
+        <v>-16.589513241529865</v>
       </c>
     </row>
     <row r="55">
@@ -532,7 +540,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="0">
-        <v>25.532089260060811</v>
+        <v>-25.532089260060811</v>
       </c>
     </row>
     <row r="56">
@@ -540,7 +548,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="0">
-        <v>32.752139643601602</v>
+        <v>-32.752139643601602</v>
       </c>
     </row>
     <row r="57">
@@ -548,7 +556,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="0">
-        <v>26.995315340873436</v>
+        <v>-26.995315340873436</v>
       </c>
     </row>
     <row r="58">
@@ -556,7 +564,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="0">
-        <v>25.617144248510428</v>
+        <v>-25.617144248510428</v>
       </c>
     </row>
     <row r="59">
@@ -564,7 +572,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="0">
-        <v>34.832008644286567</v>
+        <v>-34.832008644286567</v>
       </c>
     </row>
     <row r="60">
@@ -572,7 +580,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="0">
-        <v>37.600116695442722</v>
+        <v>-37.600116695442722</v>
       </c>
     </row>
     <row r="61">
@@ -580,7 +588,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="0">
-        <v>32.764808660148198</v>
+        <v>-32.764808660148198</v>
       </c>
     </row>
     <row r="62">
@@ -588,7 +596,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="0">
-        <v>22.642108495845264</v>
+        <v>-22.642108495845264</v>
       </c>
     </row>
     <row r="63">
@@ -596,7 +604,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="0">
-        <v>20.869206503249984</v>
+        <v>-20.869206503249984</v>
       </c>
     </row>
     <row r="64">
@@ -604,7 +612,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="0">
-        <v>24.492369479924747</v>
+        <v>-24.492369479924747</v>
       </c>
     </row>
     <row r="65">
@@ -612,7 +620,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="0">
-        <v>24.806679625949783</v>
+        <v>-24.806679625949783</v>
       </c>
     </row>
     <row r="66">
@@ -620,7 +628,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="0">
-        <v>23.719210143520623</v>
+        <v>-23.719210143520623</v>
       </c>
     </row>
     <row r="67">
@@ -628,7 +636,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="0">
-        <v>20.15981169282847</v>
+        <v>-20.15981169282847</v>
       </c>
     </row>
     <row r="68">
@@ -636,7 +644,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="0">
-        <v>16.396944027290669</v>
+        <v>-16.396944027290669</v>
       </c>
     </row>
     <row r="69">
@@ -644,7 +652,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="0">
-        <v>6.2289982879004979</v>
+        <v>-6.2289982879004979</v>
       </c>
     </row>
     <row r="70">
@@ -652,7 +660,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="0">
-        <v>1.532825742864401</v>
+        <v>-1.532825742864401</v>
       </c>
     </row>
     <row r="71">
@@ -660,7 +668,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="0">
-        <v>0.88664819958871699</v>
+        <v>-0.88664819958871699</v>
       </c>
     </row>
     <row r="72">
@@ -668,7 +676,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="0">
-        <v>-4.2578109976606759</v>
+        <v>4.2578109976606759</v>
       </c>
     </row>
     <row r="73">
@@ -676,7 +684,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="0">
-        <v>-6.1009622296719712</v>
+        <v>6.1009622296719712</v>
       </c>
     </row>
     <row r="74">
@@ -684,7 +692,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="0">
-        <v>-2.9931073567957012</v>
+        <v>2.9931073567957012</v>
       </c>
     </row>
     <row r="75">
@@ -692,7 +700,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="0">
-        <v>2.6452808349826871</v>
+        <v>-2.6452808349826871</v>
       </c>
     </row>
     <row r="76">
@@ -700,7 +708,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="0">
-        <v>2.6660169898908168</v>
+        <v>-2.6660169898908168</v>
       </c>
     </row>
     <row r="77">
@@ -708,7 +716,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="0">
-        <v>-2.9927136246918495</v>
+        <v>2.9927136246918495</v>
       </c>
     </row>
     <row r="78">
@@ -716,7 +724,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="0">
-        <v>-8.9772789838456504</v>
+        <v>8.9772789838456504</v>
       </c>
     </row>
     <row r="79">
@@ -724,7 +732,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="0">
-        <v>-6.5187274217974824</v>
+        <v>6.5187274217974824</v>
       </c>
     </row>
     <row r="80">
@@ -732,7 +740,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="0">
-        <v>0.0019572408007177411</v>
+        <v>-0.0019572408007177411</v>
       </c>
     </row>
     <row r="81">
@@ -740,7 +748,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="0">
-        <v>1.2020319204621792</v>
+        <v>-1.2020319204621792</v>
       </c>
     </row>
     <row r="82">
@@ -748,7 +756,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="0">
-        <v>2.4057073439339391</v>
+        <v>-2.4057073439339391</v>
       </c>
     </row>
     <row r="83">
@@ -756,7 +764,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="0">
-        <v>3.6371831412593685</v>
+        <v>-3.6371831412593685</v>
       </c>
     </row>
     <row r="84">
@@ -764,7 +772,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="0">
-        <v>6.1241724510748332</v>
+        <v>-6.1241724510748332</v>
       </c>
     </row>
     <row r="85">
@@ -772,7 +780,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="0">
-        <v>11.322839956703715</v>
+        <v>-11.322839956703715</v>
       </c>
     </row>
     <row r="86">
@@ -780,7 +788,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="0">
-        <v>18.322318312650541</v>
+        <v>-18.322318312650541</v>
       </c>
     </row>
     <row r="87">
@@ -788,7 +796,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="0">
-        <v>26.241729887197071</v>
+        <v>-26.241729887197071</v>
       </c>
     </row>
     <row r="88">
@@ -796,7 +804,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="0">
-        <v>31.301548272055168</v>
+        <v>-31.301548272055168</v>
       </c>
     </row>
     <row r="89">
@@ -804,7 +812,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="0">
-        <v>31.846299968862006</v>
+        <v>-31.846299968862006</v>
       </c>
     </row>
     <row r="90">
@@ -812,7 +820,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="0">
-        <v>30.512402858145375</v>
+        <v>-30.512402858145375</v>
       </c>
     </row>
     <row r="91">
@@ -820,7 +828,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="0">
-        <v>32.48436162559549</v>
+        <v>-32.48436162559549</v>
       </c>
     </row>
     <row r="92">
@@ -828,7 +836,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="0">
-        <v>36.544641220121214</v>
+        <v>-36.544641220121214</v>
       </c>
     </row>
     <row r="93">
@@ -836,7 +844,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="0">
-        <v>35.137825040951917</v>
+        <v>-35.137825040951917</v>
       </c>
     </row>
     <row r="94">
@@ -844,7 +852,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="0">
-        <v>32.366350573919846</v>
+        <v>-32.366350573919846</v>
       </c>
     </row>
     <row r="95">
@@ -852,7 +860,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="0">
-        <v>27.565363300359575</v>
+        <v>-27.565363300359575</v>
       </c>
     </row>
     <row r="96">
@@ -860,7 +868,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="0">
-        <v>15.113193984964068</v>
+        <v>-15.113193984964068</v>
       </c>
     </row>
     <row r="97">
@@ -868,7 +876,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="0">
-        <v>7.3264913105530276</v>
+        <v>-7.3264913105530276</v>
       </c>
     </row>
     <row r="98">
@@ -876,7 +884,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="0">
-        <v>2.3009697471121049</v>
+        <v>-2.3009697471121049</v>
       </c>
     </row>
     <row r="99">
@@ -884,7 +892,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="0">
-        <v>-15.017484810830501</v>
+        <v>15.017484810830501</v>
       </c>
     </row>
     <row r="100">
@@ -892,7 +900,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="0">
-        <v>-23.994365563405989</v>
+        <v>23.994365563405989</v>
       </c>
     </row>
     <row r="101">
@@ -900,7 +908,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="0">
-        <v>-20.128562817005957</v>
+        <v>20.128562817005957</v>
       </c>
     </row>
     <row r="102">
@@ -908,7 +916,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="0">
-        <v>-16.373237639737173</v>
+        <v>16.373237639737173</v>
       </c>
     </row>
     <row r="103">
@@ -916,7 +924,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="0">
-        <v>-13.444362588947932</v>
+        <v>13.444362588947932</v>
       </c>
     </row>
     <row r="104">
@@ -924,7 +932,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="0">
-        <v>-15.286334249905783</v>
+        <v>15.286334249905783</v>
       </c>
     </row>
     <row r="105">
@@ -932,7 +940,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="0">
-        <v>-18.252730735532882</v>
+        <v>18.252730735532882</v>
       </c>
     </row>
     <row r="106">
@@ -940,7 +948,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="0">
-        <v>-18.488924055916691</v>
+        <v>18.488924055916691</v>
       </c>
     </row>
     <row r="107">
@@ -948,7 +956,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="0">
-        <v>-18.101835838700019</v>
+        <v>18.101835838700019</v>
       </c>
     </row>
     <row r="108">
@@ -956,7 +964,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="0">
-        <v>-17.092008859495508</v>
+        <v>17.092008859495508</v>
       </c>
     </row>
     <row r="109">
@@ -964,7 +972,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="0">
-        <v>-16.728814853270514</v>
+        <v>16.728814853270514</v>
       </c>
     </row>
     <row r="110">
@@ -972,7 +980,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="0">
-        <v>-16.867535650358633</v>
+        <v>16.867535650358633</v>
       </c>
     </row>
     <row r="111">
@@ -980,7 +988,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="0">
-        <v>-16.44904626783056</v>
+        <v>16.44904626783056</v>
       </c>
     </row>
     <row r="112">
@@ -988,7 +996,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="0">
-        <v>-15.470483056750121</v>
+        <v>15.470483056750121</v>
       </c>
     </row>
     <row r="113">
@@ -996,7 +1004,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="0">
-        <v>-15.079147448411243</v>
+        <v>15.079147448411243</v>
       </c>
     </row>
     <row r="114">
@@ -1004,7 +1012,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="0">
-        <v>-18.54568463064761</v>
+        <v>18.54568463064761</v>
       </c>
     </row>
     <row r="115">
@@ -1012,7 +1020,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="0">
-        <v>-23.216528410559384</v>
+        <v>23.216528410559384</v>
       </c>
     </row>
     <row r="116">
@@ -1020,7 +1028,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="0">
-        <v>-21.853170661410925</v>
+        <v>21.853170661410925</v>
       </c>
     </row>
     <row r="117">
@@ -1028,7 +1036,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="0">
-        <v>-13.385041516326011</v>
+        <v>13.385041516326011</v>
       </c>
     </row>
     <row r="118">
@@ -1036,7 +1044,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="0">
-        <v>-8.1076581163916579</v>
+        <v>8.1076581163916579</v>
       </c>
     </row>
     <row r="119">
@@ -1044,7 +1052,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="0">
-        <v>-8.7116180266910099</v>
+        <v>8.7116180266910099</v>
       </c>
     </row>
     <row r="120">
@@ -1052,7 +1060,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="0">
-        <v>-24.143212284648389</v>
+        <v>24.143212284648389</v>
       </c>
     </row>
     <row r="121">
@@ -1060,7 +1068,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="0">
-        <v>-33.723681915922725</v>
+        <v>33.723681915922725</v>
       </c>
     </row>
     <row r="122">
@@ -1068,7 +1076,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="0">
-        <v>-26.198823835525399</v>
+        <v>26.198823835525399</v>
       </c>
     </row>
     <row r="123">
@@ -1076,7 +1084,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="0">
-        <v>-18.887722917127832</v>
+        <v>18.887722917127832</v>
       </c>
     </row>
     <row r="124">
@@ -1084,7 +1092,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="0">
-        <v>-15.131215926963174</v>
+        <v>15.131215926963174</v>
       </c>
     </row>
     <row r="125">
@@ -1092,7 +1100,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="0">
-        <v>-10.920952227870663</v>
+        <v>10.920952227870663</v>
       </c>
     </row>
     <row r="126">
@@ -1100,7 +1108,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="0">
-        <v>-5.3265715373073226</v>
+        <v>5.3265715373073226</v>
       </c>
     </row>
     <row r="127">
@@ -1108,7 +1116,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="0">
-        <v>-1.4826890490884082</v>
+        <v>1.4826890490884082</v>
       </c>
     </row>
     <row r="128">
@@ -1116,7 +1124,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="0">
-        <v>-0.44226117194940379</v>
+        <v>0.44226117194940379</v>
       </c>
     </row>
     <row r="129">
@@ -1124,7 +1132,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="0">
-        <v>-0.26680392577122597</v>
+        <v>0.26680392577122597</v>
       </c>
     </row>
     <row r="130">
@@ -1132,7 +1140,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -1140,7 +1148,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -1148,7 +1156,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -1156,7 +1164,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -1164,7 +1172,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -1172,7 +1180,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -1180,7 +1188,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -1188,7 +1196,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -1196,7 +1204,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="0">
-        <v>2.954089680618611</v>
+        <v>-2.954089680618611</v>
       </c>
     </row>
     <row r="139">
@@ -1204,7 +1212,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="0">
-        <v>15.107078939818189</v>
+        <v>-15.107078939818189</v>
       </c>
     </row>
     <row r="140">
@@ -1212,7 +1220,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="0">
-        <v>27.693677215112825</v>
+        <v>-27.693677215112825</v>
       </c>
     </row>
     <row r="141">
@@ -1220,7 +1228,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="0">
-        <v>39.382715936894691</v>
+        <v>-39.382715936894691</v>
       </c>
     </row>
     <row r="142">
@@ -1228,7 +1236,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="0">
-        <v>45.583034752204135</v>
+        <v>-45.583034752204135</v>
       </c>
     </row>
     <row r="143">
@@ -1236,7 +1244,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="0">
-        <v>44.753739520510614</v>
+        <v>-44.753739520510614</v>
       </c>
     </row>
     <row r="144">
@@ -1244,7 +1252,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="0">
-        <v>47.16950421116065</v>
+        <v>-47.16950421116065</v>
       </c>
     </row>
     <row r="145">
@@ -1252,7 +1260,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="0">
-        <v>38.099485799435065</v>
+        <v>-38.099485799435065</v>
       </c>
     </row>
     <row r="146">
@@ -1260,7 +1268,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="0">
-        <v>23.277051611960196</v>
+        <v>-23.277051611960196</v>
       </c>
     </row>
     <row r="147">
@@ -1268,7 +1276,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="0">
-        <v>17.426461284118798</v>
+        <v>-17.426461284118798</v>
       </c>
     </row>
     <row r="148">
@@ -1276,7 +1284,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="0">
-        <v>17.954071777907785</v>
+        <v>-17.954071777907785</v>
       </c>
     </row>
     <row r="149">
@@ -1284,7 +1292,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="0">
-        <v>16.081702330690778</v>
+        <v>-16.081702330690778</v>
       </c>
     </row>
     <row r="150">
@@ -1292,7 +1300,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="0">
-        <v>14.482268815893823</v>
+        <v>-14.482268815893823</v>
       </c>
     </row>
     <row r="151">
@@ -1300,7 +1308,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="0">
-        <v>14.256810198939288</v>
+        <v>-14.256810198939288</v>
       </c>
     </row>
     <row r="152">
@@ -1308,7 +1316,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="0">
-        <v>9.3163198626359858</v>
+        <v>-9.3163198626359858</v>
       </c>
     </row>
     <row r="153">
@@ -1316,7 +1324,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="0">
-        <v>7.4935378846243799</v>
+        <v>-7.4935378846243799</v>
       </c>
     </row>
     <row r="154">
@@ -1324,7 +1332,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="0">
-        <v>10.155343453800095</v>
+        <v>-10.155343453800095</v>
       </c>
     </row>
     <row r="155">
@@ -1332,7 +1340,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="0">
-        <v>7.7337002011068545</v>
+        <v>-7.7337002011068545</v>
       </c>
     </row>
     <row r="156">
@@ -1340,7 +1348,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="0">
-        <v>2.604169309051906</v>
+        <v>-2.604169309051906</v>
       </c>
     </row>
     <row r="157">
@@ -1348,7 +1356,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="0">
-        <v>7.7337002011069043</v>
+        <v>-7.7337002011069043</v>
       </c>
     </row>
     <row r="158">
@@ -1356,7 +1364,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="0">
-        <v>19.53908690297089</v>
+        <v>-19.53908690297089</v>
       </c>
     </row>
     <row r="159">
@@ -1364,7 +1372,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="0">
-        <v>18.830494435216316</v>
+        <v>-18.830494435216316</v>
       </c>
     </row>
     <row r="160">
@@ -1372,7 +1380,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="0">
-        <v>15.434740576794985</v>
+        <v>-15.434740576794985</v>
       </c>
     </row>
     <row r="161">
@@ -1380,7 +1388,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="0">
-        <v>13.655673297093042</v>
+        <v>-13.655673297093042</v>
       </c>
     </row>
     <row r="162">
@@ -1388,7 +1396,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="0">
-        <v>13.749194951431281</v>
+        <v>-13.749194951431281</v>
       </c>
     </row>
     <row r="163">
@@ -1396,7 +1404,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="0">
-        <v>14.126888896883568</v>
+        <v>-14.126888896883568</v>
       </c>
     </row>
     <row r="164">
@@ -1404,7 +1412,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="0">
-        <v>7.575130850654439</v>
+        <v>-7.575130850654439</v>
       </c>
     </row>
     <row r="165">
@@ -1412,7 +1420,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="0">
-        <v>7.634420848142887</v>
+        <v>-7.634420848142887</v>
       </c>
     </row>
     <row r="166">
@@ -1420,7 +1428,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="0">
-        <v>-0.17283160724425048</v>
+        <v>0.17283160724425048</v>
       </c>
     </row>
     <row r="167">
@@ -1428,7 +1436,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="0">
-        <v>-11.584490752642969</v>
+        <v>11.584490752642969</v>
       </c>
     </row>
     <row r="168">
@@ -1436,7 +1444,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="0">
-        <v>-7.5620735757684523</v>
+        <v>7.5620735757684523</v>
       </c>
     </row>
     <row r="169">
@@ -1444,7 +1452,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="0">
-        <v>-0.31539733584786572</v>
+        <v>0.31539733584786572</v>
       </c>
     </row>
     <row r="170">
@@ -1452,7 +1460,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="0">
-        <v>-2.3231064747943106</v>
+        <v>2.3231064747943106</v>
       </c>
     </row>
     <row r="171">
@@ -1460,7 +1468,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="0">
-        <v>0.96925370657266585</v>
+        <v>-0.96925370657266585</v>
       </c>
     </row>
     <row r="172">
@@ -1468,7 +1476,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="0">
-        <v>-1.6711196868681542</v>
+        <v>1.6711196868681542</v>
       </c>
     </row>
     <row r="173">
@@ -1476,7 +1484,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="0">
-        <v>-0.39533108155637353</v>
+        <v>0.39533108155637353</v>
       </c>
     </row>
     <row r="174">
@@ -1484,7 +1492,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="0">
-        <v>2.9467562914983247</v>
+        <v>-2.9467562914983247</v>
       </c>
     </row>
     <row r="175">
@@ -1492,7 +1500,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="0">
-        <v>-0.39533108155632446</v>
+        <v>0.39533108155632446</v>
       </c>
     </row>
     <row r="176">
@@ -1500,7 +1508,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="0">
-        <v>0.2529816899604298</v>
+        <v>-0.2529816899604298</v>
       </c>
     </row>
     <row r="177">
@@ -1508,7 +1516,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="0">
-        <v>2.1984992944580615</v>
+        <v>-2.1984992944580615</v>
       </c>
     </row>
     <row r="178">
@@ -1516,7 +1524,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="0">
-        <v>5.5539761013406679</v>
+        <v>-5.5539761013406679</v>
       </c>
     </row>
     <row r="179">
@@ -1524,7 +1532,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="0">
-        <v>2.9021949763227459</v>
+        <v>-2.9021949763227459</v>
       </c>
     </row>
     <row r="180">
@@ -1532,7 +1540,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="0">
-        <v>-0.40546863773225539</v>
+        <v>0.40546863773225539</v>
       </c>
     </row>
     <row r="181">
@@ -1540,7 +1548,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="0">
-        <v>0.22824057297819586</v>
+        <v>-0.22824057297819586</v>
       </c>
     </row>
     <row r="182">
@@ -1548,7 +1556,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="0">
-        <v>1.5243367742703726</v>
+        <v>-1.5243367742703726</v>
       </c>
     </row>
     <row r="183">
@@ -1556,7 +1564,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="0">
-        <v>-4.890222613632309</v>
+        <v>4.890222613632309</v>
       </c>
     </row>
     <row r="184">
@@ -1564,7 +1572,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="0">
-        <v>-7.9136853426533795</v>
+        <v>7.9136853426533795</v>
       </c>
     </row>
     <row r="185">
@@ -1572,7 +1580,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="0">
-        <v>1.3767217835763517</v>
+        <v>-1.3767217835763517</v>
       </c>
     </row>
     <row r="186">
@@ -1580,7 +1588,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="0">
-        <v>-9.7009723902787108</v>
+        <v>9.7009723902787108</v>
       </c>
     </row>
     <row r="187">
@@ -1588,7 +1596,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="0">
-        <v>3.0579401409229523</v>
+        <v>-3.0579401409229523</v>
       </c>
     </row>
     <row r="188">
@@ -1596,7 +1604,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="0">
-        <v>26.869553484535153</v>
+        <v>-26.869553484535153</v>
       </c>
     </row>
     <row r="189">
@@ -1604,7 +1612,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="0">
-        <v>18.580032735437651</v>
+        <v>-18.580032735437651</v>
       </c>
     </row>
     <row r="190">
@@ -1612,7 +1620,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="0">
-        <v>19.124741427130747</v>
+        <v>-19.124741427130747</v>
       </c>
     </row>
     <row r="191">
@@ -1620,7 +1628,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="0">
-        <v>10.741685374212295</v>
+        <v>-10.741685374212295</v>
       </c>
     </row>
     <row r="192">
@@ -1628,7 +1636,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="0">
-        <v>12.928806293759088</v>
+        <v>-12.928806293759088</v>
       </c>
     </row>
     <row r="193">
@@ -1636,7 +1644,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="0">
-        <v>16.319146702582145</v>
+        <v>-16.319146702582145</v>
       </c>
     </row>
     <row r="194">
@@ -1644,7 +1652,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="0">
-        <v>14.977657544763247</v>
+        <v>-14.977657544763247</v>
       </c>
     </row>
     <row r="195">
@@ -1652,7 +1660,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="0">
-        <v>14.574967075334628</v>
+        <v>-14.574967075334628</v>
       </c>
     </row>
     <row r="196">
@@ -1660,7 +1668,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="0">
-        <v>10.120264422374957</v>
+        <v>-10.120264422374957</v>
       </c>
     </row>
     <row r="197">
@@ -1668,7 +1676,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="0">
-        <v>11.769219822686123</v>
+        <v>-11.769219822686123</v>
       </c>
     </row>
     <row r="198">
@@ -1676,7 +1684,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="0">
-        <v>8.0998534851348847</v>
+        <v>-8.0998534851348847</v>
       </c>
     </row>
     <row r="199">
@@ -1684,7 +1692,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="0">
-        <v>5.0953116409263473</v>
+        <v>-5.0953116409263473</v>
       </c>
     </row>
     <row r="200">
@@ -1692,7 +1700,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="0">
-        <v>1.4308729762141197</v>
+        <v>-1.4308729762141197</v>
       </c>
     </row>
     <row r="201">
@@ -1700,7 +1708,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="0">
-        <v>2.110879055642497</v>
+        <v>-2.110879055642497</v>
       </c>
     </row>
     <row r="202">
@@ -1708,7 +1716,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="0">
-        <v>10.388882586919523</v>
+        <v>-10.388882586919523</v>
       </c>
     </row>
     <row r="203">
@@ -1716,7 +1724,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="0">
-        <v>5.1891626343690174</v>
+        <v>-5.1891626343690174</v>
       </c>
     </row>
     <row r="204">
@@ -1724,7 +1732,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="0">
-        <v>1.4308729762141197</v>
+        <v>-1.4308729762141197</v>
       </c>
     </row>
     <row r="205">
@@ -1732,7 +1740,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="0">
-        <v>5.8920516583619458</v>
+        <v>-5.8920516583619458</v>
       </c>
     </row>
     <row r="206">
@@ -1740,7 +1748,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="0">
-        <v>13.641943053194968</v>
+        <v>-13.641943053194968</v>
       </c>
     </row>
     <row r="207">
@@ -1748,7 +1756,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="0">
-        <v>10.788066303580424</v>
+        <v>-10.788066303580424</v>
       </c>
     </row>
     <row r="208">
@@ -1756,7 +1764,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="0">
-        <v>3.7986059697451826</v>
+        <v>-3.7986059697451826</v>
       </c>
     </row>
     <row r="209">
@@ -1764,7 +1772,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="0">
-        <v>6.8848618473756886</v>
+        <v>-6.8848618473756886</v>
       </c>
     </row>
     <row r="210">
@@ -1772,7 +1780,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="0">
-        <v>6.922272482117239</v>
+        <v>-6.922272482117239</v>
       </c>
     </row>
     <row r="211">
@@ -1780,7 +1788,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="0">
-        <v>8.5206642097795733</v>
+        <v>-8.5206642097795733</v>
       </c>
     </row>
     <row r="212">
@@ -1788,7 +1796,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="0">
-        <v>10.192763664965661</v>
+        <v>-10.192763664965661</v>
       </c>
     </row>
     <row r="213">
@@ -1796,7 +1804,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="0">
-        <v>12.71432176136395</v>
+        <v>-12.71432176136395</v>
       </c>
     </row>
     <row r="214">
@@ -1804,7 +1812,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="0">
-        <v>9.6522022478117417</v>
+        <v>-9.6522022478117417</v>
       </c>
     </row>
     <row r="215">
@@ -1812,7 +1820,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="0">
-        <v>7.2464117499085461</v>
+        <v>-7.2464117499085461</v>
       </c>
     </row>
     <row r="216">
@@ -1820,7 +1828,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="0">
-        <v>-10.201719552492756</v>
+        <v>10.201719552492756</v>
       </c>
     </row>
     <row r="217">
@@ -1828,7 +1836,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="0">
-        <v>-16.234485605648921</v>
+        <v>16.234485605648921</v>
       </c>
     </row>
     <row r="218">
@@ -1836,7 +1844,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="0">
-        <v>2.2610344813796601</v>
+        <v>-2.2610344813796601</v>
       </c>
     </row>
     <row r="219">
@@ -1844,7 +1852,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="0">
-        <v>7.6184425634271191</v>
+        <v>-7.6184425634271191</v>
       </c>
     </row>
     <row r="220">
@@ -1852,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="0">
-        <v>2.3163174663088704</v>
+        <v>-2.3163174663088704</v>
       </c>
     </row>
     <row r="221">
@@ -1860,7 +1868,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="0">
-        <v>5.2843138628689328</v>
+        <v>-5.2843138628689328</v>
       </c>
     </row>
     <row r="222">
@@ -1868,7 +1876,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="0">
-        <v>7.6982925406769009</v>
+        <v>-7.6982925406769009</v>
       </c>
     </row>
     <row r="223">
@@ -1876,7 +1884,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="0">
-        <v>0.82858489138895641</v>
+        <v>-0.82858489138895641</v>
       </c>
     </row>
     <row r="224">
@@ -1884,7 +1892,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="0">
-        <v>3.7986059697451826</v>
+        <v>-3.7986059697451826</v>
       </c>
     </row>
     <row r="225">
@@ -1892,7 +1900,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="0">
-        <v>0.083908343552662468</v>
+        <v>-0.083908343552662468</v>
       </c>
     </row>
     <row r="226">
@@ -1900,7 +1908,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="0">
-        <v>2.2391669861937125</v>
+        <v>-2.2391669861937125</v>
       </c>
     </row>
     <row r="227">
@@ -1908,7 +1916,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="0">
-        <v>7.6383479774207608</v>
+        <v>-7.6383479774207608</v>
       </c>
     </row>
     <row r="228">
@@ -1916,7 +1924,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="0">
-        <v>3.7986059697451826</v>
+        <v>-3.7986059697451826</v>
       </c>
     </row>
     <row r="229">
@@ -1924,7 +1932,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="0">
-        <v>3.0570397465612116</v>
+        <v>-3.0570397465612116</v>
       </c>
     </row>
     <row r="230">
@@ -1932,7 +1940,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="0">
-        <v>3.7850886663883196</v>
+        <v>-3.7850886663883196</v>
       </c>
     </row>
     <row r="231">
@@ -1940,7 +1948,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="0">
-        <v>0.068846283475523504</v>
+        <v>-0.068846283475523504</v>
       </c>
     </row>
     <row r="232">
@@ -1948,7 +1956,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="0">
-        <v>-0.71368907862111042</v>
+        <v>0.71368907862111042</v>
       </c>
     </row>
     <row r="233">
@@ -1956,7 +1964,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="0">
-        <v>8.2873305178784804</v>
+        <v>-8.2873305178784804</v>
       </c>
     </row>
     <row r="234">
@@ -1964,7 +1972,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="0">
-        <v>8.3928144235509663</v>
+        <v>-8.3928144235509663</v>
       </c>
     </row>
     <row r="235">
@@ -1972,7 +1980,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="0">
-        <v>6.8662129751619476</v>
+        <v>-6.8662129751619476</v>
       </c>
     </row>
     <row r="236">
@@ -1980,7 +1988,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="0">
-        <v>10.048036114226953</v>
+        <v>-10.048036114226953</v>
       </c>
     </row>
     <row r="237">
@@ -1988,7 +1996,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="0">
-        <v>10.168542250890818</v>
+        <v>-10.168542250890818</v>
       </c>
     </row>
     <row r="238">
@@ -1996,7 +2004,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="0">
-        <v>-2.0937528830134955</v>
+        <v>2.0937528830134955</v>
       </c>
     </row>
     <row r="239">
@@ -2004,7 +2012,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="0">
-        <v>-2.8696206270341809</v>
+        <v>2.8696206270341809</v>
       </c>
     </row>
     <row r="240">
@@ -2012,7 +2020,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="0">
-        <v>-2.8639131843679078</v>
+        <v>2.8639131843679078</v>
       </c>
     </row>
     <row r="241">
@@ -2020,7 +2028,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="0">
-        <v>0.0027658004516786412</v>
+        <v>-0.0027658004516786412</v>
       </c>
     </row>
     <row r="242">
@@ -2028,7 +2036,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="0">
-        <v>3.7716071765653911</v>
+        <v>-3.7716071765653911</v>
       </c>
     </row>
     <row r="243">
@@ -2036,7 +2044,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="0">
-        <v>3.6914668955013479</v>
+        <v>-3.6914668955013479</v>
       </c>
     </row>
     <row r="244">
@@ -2044,7 +2052,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="0">
-        <v>6.8104913447859374</v>
+        <v>-6.8104913447859374</v>
       </c>
     </row>
     <row r="245">
@@ -2052,7 +2060,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="0">
-        <v>-1.4317185266779779</v>
+        <v>1.4317185266779779</v>
       </c>
     </row>
     <row r="246">
@@ -2060,7 +2068,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="0">
-        <v>0.72595566039857462</v>
+        <v>-0.72595566039857462</v>
       </c>
     </row>
     <row r="247">
@@ -2068,7 +2076,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="0">
-        <v>3.6914668955013479</v>
+        <v>-3.6914668955013479</v>
       </c>
     </row>
     <row r="248">
@@ -2076,7 +2084,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="0">
-        <v>5.1734308769316195</v>
+        <v>-5.1734308769316195</v>
       </c>
     </row>
     <row r="249">
@@ -2084,7 +2092,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="0">
-        <v>6.7367183392341232</v>
+        <v>-6.7367183392341232</v>
       </c>
     </row>
     <row r="250">
@@ -2092,7 +2100,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="0">
-        <v>3.7313769761458233</v>
+        <v>-3.7313769761458233</v>
       </c>
     </row>
     <row r="251">
@@ -2100,7 +2108,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="0">
-        <v>-2.8885404868671931</v>
+        <v>2.8885404868671931</v>
       </c>
     </row>
     <row r="252">
@@ -2108,7 +2116,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="0">
-        <v>-2.1953788015956137</v>
+        <v>2.1953788015956137</v>
       </c>
     </row>
     <row r="253">
@@ -2116,7 +2124,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="0">
-        <v>6.5909479582098909</v>
+        <v>-6.5909479582098909</v>
       </c>
     </row>
     <row r="254">
@@ -2124,7 +2132,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="0">
-        <v>5.9089771116165206</v>
+        <v>-5.9089771116165206</v>
       </c>
     </row>
     <row r="255">
@@ -2132,7 +2140,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="0">
-        <v>-1.4656820506308408</v>
+        <v>1.4656820506308408</v>
       </c>
     </row>
     <row r="256">
@@ -2140,7 +2148,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="0">
-        <v>0.66027309182774063</v>
+        <v>-0.66027309182774063</v>
       </c>
     </row>
     <row r="257">
@@ -2148,7 +2156,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="0">
-        <v>4.3380979147940852</v>
+        <v>-4.3380979147940852</v>
       </c>
     </row>
     <row r="258">
@@ -2156,7 +2164,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="0">
-        <v>2.8524424519295706</v>
+        <v>-2.8524424519295706</v>
       </c>
     </row>
     <row r="259">
@@ -2164,7 +2172,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="0">
-        <v>4.3238697896849869</v>
+        <v>-4.3238697896849869</v>
       </c>
     </row>
     <row r="260">
@@ -2172,7 +2180,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="0">
-        <v>2.1319154614106424</v>
+        <v>-2.1319154614106424</v>
       </c>
     </row>
     <row r="261">
@@ -2180,7 +2188,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="0">
-        <v>4.295519210719009</v>
+        <v>-4.295519210719009</v>
       </c>
     </row>
     <row r="262">
@@ -2188,7 +2196,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="0">
-        <v>8.859393932763604</v>
+        <v>-8.859393932763604</v>
       </c>
     </row>
     <row r="263">
@@ -2196,7 +2204,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="0">
-        <v>2.1744007633713101</v>
+        <v>-2.1744007633713101</v>
       </c>
     </row>
     <row r="264">
@@ -2204,7 +2212,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="0">
-        <v>-0.053662822019196581</v>
+        <v>0.053662822019196581</v>
       </c>
     </row>
     <row r="265">
@@ -2212,7 +2220,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="0">
-        <v>4.3238697896849869</v>
+        <v>-4.3238697896849869</v>
       </c>
     </row>
     <row r="266">
@@ -2220,7 +2228,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="0">
-        <v>0.67649050955936552</v>
+        <v>-0.67649050955936552</v>
       </c>
     </row>
     <row r="267">
@@ -2228,7 +2236,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="0">
-        <v>6.4831573237885474</v>
+        <v>-6.4831573237885474</v>
       </c>
     </row>
     <row r="268">
@@ -2236,7 +2244,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="0">
-        <v>10.462958611937585</v>
+        <v>-10.462958611937585</v>
       </c>
     </row>
     <row r="269">
@@ -2244,7 +2252,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="0">
-        <v>-0.018647990608577303</v>
+        <v>0.018647990608577303</v>
       </c>
     </row>
     <row r="270">
@@ -2252,7 +2260,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="0">
-        <v>3.5865925223736221</v>
+        <v>-3.5865925223736221</v>
       </c>
     </row>
     <row r="271">
@@ -2260,7 +2268,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="0">
-        <v>4.3953640945706489</v>
+        <v>-4.3953640945706489</v>
       </c>
     </row>
     <row r="272">
@@ -2268,7 +2276,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="0">
-        <v>-1.4843549408193271</v>
+        <v>1.4843549408193271</v>
       </c>
     </row>
     <row r="273">
@@ -2276,7 +2284,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="0">
-        <v>-0.067433867843085069</v>
+        <v>0.067433867843085069</v>
       </c>
     </row>
     <row r="274">
@@ -2284,7 +2292,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="0">
-        <v>1.3564047658111216</v>
+        <v>-1.3564047658111216</v>
       </c>
     </row>
     <row r="275">
@@ -2292,7 +2300,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="0">
-        <v>4.9874439834592108</v>
+        <v>-4.9874439834592108</v>
       </c>
     </row>
     <row r="276">
@@ -2300,7 +2308,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="0">
-        <v>5.7745870430744493</v>
+        <v>-5.7745870430744493</v>
       </c>
     </row>
     <row r="277">
@@ -2308,7 +2316,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="0">
-        <v>3.5607241364044335</v>
+        <v>-3.5607241364044335</v>
       </c>
     </row>
     <row r="278">
@@ -2316,7 +2324,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="0">
-        <v>2.8290348196801274</v>
+        <v>-2.8290348196801274</v>
       </c>
     </row>
     <row r="279">
@@ -2324,7 +2332,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="0">
-        <v>5.757950407997475</v>
+        <v>-5.757950407997475</v>
       </c>
     </row>
     <row r="280">
@@ -2332,7 +2340,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="0">
-        <v>5.079795262318636</v>
+        <v>-5.079795262318636</v>
       </c>
     </row>
     <row r="281">
@@ -2340,7 +2348,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="0">
-        <v>2.110879055642497</v>
+        <v>-2.110879055642497</v>
       </c>
     </row>
     <row r="282">
@@ -2348,7 +2356,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="0">
-        <v>5.04886946977817</v>
+        <v>-5.04886946977817</v>
       </c>
     </row>
     <row r="283">
@@ -2356,7 +2364,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="0">
-        <v>7.3243766203640082</v>
+        <v>-7.3243766203640082</v>
       </c>
     </row>
     <row r="284">
@@ -2364,7 +2372,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="0">
-        <v>5.1264516775961599</v>
+        <v>-5.1264516775961599</v>
       </c>
     </row>
     <row r="285">
@@ -2372,7 +2380,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="0">
-        <v>11.184929645919318</v>
+        <v>-11.184929645919318</v>
       </c>
     </row>
     <row r="286">
@@ -2380,7 +2388,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="0">
-        <v>17.086008140642765</v>
+        <v>-17.086008140642765</v>
       </c>
     </row>
     <row r="287">
@@ -2388,7 +2396,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="0">
-        <v>12.431393039127242</v>
+        <v>-12.431393039127242</v>
       </c>
     </row>
     <row r="288">
@@ -2396,7 +2404,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="0">
-        <v>10.168542250890818</v>
+        <v>-10.168542250890818</v>
       </c>
     </row>
     <row r="289">
@@ -2404,7 +2412,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="0">
-        <v>12.657398950185133</v>
+        <v>-12.657398950185133</v>
       </c>
     </row>
     <row r="290">
@@ -2412,7 +2420,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="0">
-        <v>12.065760240353898</v>
+        <v>-12.065760240353898</v>
       </c>
     </row>
     <row r="291">
@@ -2420,7 +2428,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="0">
-        <v>12.943717011054474</v>
+        <v>-12.943717011054474</v>
       </c>
     </row>
     <row r="292">
@@ -2428,7 +2436,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="0">
-        <v>13.205083556503427</v>
+        <v>-13.205083556503427</v>
       </c>
     </row>
     <row r="293">
@@ -2436,7 +2444,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="0">
-        <v>8.2957606302361064</v>
+        <v>-8.2957606302361064</v>
       </c>
     </row>
     <row r="294">
@@ -2444,7 +2452,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="0">
-        <v>13.351815831928487</v>
+        <v>-13.351815831928487</v>
       </c>
     </row>
     <row r="295">
@@ -2452,7 +2460,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="0">
-        <v>11.040707673394341</v>
+        <v>-11.040707673394341</v>
       </c>
     </row>
     <row r="296">
@@ -2460,7 +2468,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="0">
-        <v>8.5311393862049254</v>
+        <v>-8.5311393862049254</v>
       </c>
     </row>
     <row r="297">
@@ -2468,7 +2476,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="0">
-        <v>11.169502201094659</v>
+        <v>-11.169502201094659</v>
       </c>
     </row>
     <row r="298">
@@ -2476,7 +2484,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="0">
-        <v>9.5484243799767619</v>
+        <v>-9.5484243799767619</v>
       </c>
     </row>
     <row r="299">
@@ -2484,7 +2492,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="0">
-        <v>27.565363300359575</v>
+        <v>-27.565363300359575</v>
       </c>
     </row>
     <row r="300">
@@ -2492,7 +2500,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="0">
-        <v>29.810711004684592</v>
+        <v>-29.810711004684592</v>
       </c>
     </row>
     <row r="301">
@@ -2500,7 +2508,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="0">
-        <v>35.153188066619933</v>
+        <v>-35.153188066619933</v>
       </c>
     </row>
     <row r="302">
@@ -2508,7 +2516,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="0">
-        <v>10.050833047745121</v>
+        <v>-10.050833047745121</v>
       </c>
     </row>
     <row r="303">
@@ -2516,7 +2524,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="0">
-        <v>-16.831863716315397</v>
+        <v>16.831863716315397</v>
       </c>
     </row>
     <row r="304">
@@ -2524,7 +2532,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="0">
-        <v>1.6457431832448164</v>
+        <v>-1.6457431832448164</v>
       </c>
     </row>
     <row r="305">
@@ -2532,7 +2540,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="0">
-        <v>3.3402711965657068</v>
+        <v>-3.3402711965657068</v>
       </c>
     </row>
     <row r="306">
@@ -2540,7 +2548,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="0">
-        <v>7.6097574547835132</v>
+        <v>-7.6097574547835132</v>
       </c>
     </row>
     <row r="307">
@@ -2548,7 +2556,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="0">
-        <v>12.156713260065128</v>
+        <v>-12.156713260065128</v>
       </c>
     </row>
     <row r="308">
@@ -2556,7 +2564,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="0">
-        <v>6.896611471212351</v>
+        <v>-6.896611471212351</v>
       </c>
     </row>
     <row r="309">
@@ -2564,7 +2572,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="0">
-        <v>-3.3187189471115621</v>
+        <v>3.3187189471115621</v>
       </c>
     </row>
     <row r="310">
@@ -2572,7 +2580,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="0">
-        <v>-5.7893751723329849</v>
+        <v>5.7893751723329849</v>
       </c>
     </row>
     <row r="311">
@@ -2580,7 +2588,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="0">
-        <v>-0.92939064576072072</v>
+        <v>0.92939064576072072</v>
       </c>
     </row>
     <row r="312">
@@ -2588,7 +2596,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="0">
-        <v>2.35076466337734</v>
+        <v>-2.35076466337734</v>
       </c>
     </row>
     <row r="313">
@@ -2596,7 +2604,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="0">
-        <v>3.1864424629115029</v>
+        <v>-3.1864424629115029</v>
       </c>
     </row>
     <row r="314">
@@ -2604,7 +2612,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="0">
-        <v>3.9962123465648829</v>
+        <v>-3.9962123465648829</v>
       </c>
     </row>
     <row r="315">
@@ -2612,7 +2620,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="0">
-        <v>5.700448418238099</v>
+        <v>-5.700448418238099</v>
       </c>
     </row>
     <row r="316">
@@ -2620,7 +2628,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="0">
-        <v>6.5513784307570253</v>
+        <v>-6.5513784307570253</v>
       </c>
     </row>
     <row r="317">
@@ -2628,7 +2636,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="0">
-        <v>14.472631191316639</v>
+        <v>-14.472631191316639</v>
       </c>
     </row>
     <row r="318">
@@ -2636,7 +2644,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="0">
-        <v>17.508783438038808</v>
+        <v>-17.508783438038808</v>
       </c>
     </row>
     <row r="319">
@@ -2644,7 +2652,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="0">
-        <v>18.625434882646111</v>
+        <v>-18.625434882646111</v>
       </c>
     </row>
     <row r="320">
@@ -2652,7 +2660,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="0">
-        <v>25.832239902766744</v>
+        <v>-25.832239902766744</v>
       </c>
     </row>
     <row r="321">
@@ -2660,7 +2668,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="0">
-        <v>25.416287461736857</v>
+        <v>-25.416287461736857</v>
       </c>
     </row>
     <row r="322">
@@ -2668,7 +2676,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="0">
-        <v>30.016895385007142</v>
+        <v>-30.016895385007142</v>
       </c>
     </row>
     <row r="323">
@@ -2676,7 +2684,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="0">
-        <v>33.107606815834416</v>
+        <v>-33.107606815834416</v>
       </c>
     </row>
     <row r="324">
@@ -2684,7 +2692,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="0">
-        <v>26.136658762489986</v>
+        <v>-26.136658762489986</v>
       </c>
     </row>
     <row r="325">
@@ -2692,7 +2700,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="0">
-        <v>4.4540743092363062</v>
+        <v>-4.4540743092363062</v>
       </c>
     </row>
     <row r="326">
@@ -2700,7 +2708,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="0">
-        <v>-22.409472555140951</v>
+        <v>22.409472555140951</v>
       </c>
     </row>
     <row r="327">
@@ -2708,7 +2716,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="0">
-        <v>-16.468540514146941</v>
+        <v>16.468540514146941</v>
       </c>
     </row>
     <row r="328">
@@ -2716,7 +2724,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="0">
-        <v>9.2975419925486058</v>
+        <v>-9.2975419925486058</v>
       </c>
     </row>
     <row r="329">
@@ -2724,7 +2732,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="0">
-        <v>25.166750668013137</v>
+        <v>-25.166750668013137</v>
       </c>
     </row>
     <row r="330">
@@ -2732,7 +2740,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="0">
-        <v>21.598889319255132</v>
+        <v>-21.598889319255132</v>
       </c>
     </row>
     <row r="331">
@@ -2740,7 +2748,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="0">
-        <v>20.74172839200487</v>
+        <v>-20.74172839200487</v>
       </c>
     </row>
     <row r="332">
@@ -2748,7 +2756,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="0">
-        <v>21.192856335881711</v>
+        <v>-21.192856335881711</v>
       </c>
     </row>
     <row r="333">
@@ -2756,7 +2764,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="0">
-        <v>14.19988951065354</v>
+        <v>-14.19988951065354</v>
       </c>
     </row>
     <row r="334">
@@ -2764,7 +2772,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="0">
-        <v>10.348882813896539</v>
+        <v>-10.348882813896539</v>
       </c>
     </row>
     <row r="335">
@@ -2772,7 +2780,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="0">
-        <v>10.348882813896392</v>
+        <v>-10.348882813896392</v>
       </c>
     </row>
     <row r="336">
@@ -2780,7 +2788,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="0">
-        <v>10.451183369267364</v>
+        <v>-10.451183369267364</v>
       </c>
     </row>
     <row r="337">
@@ -2788,7 +2796,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="0">
-        <v>-1.0033330057692509</v>
+        <v>1.0033330057692509</v>
       </c>
     </row>
     <row r="338">
@@ -2796,7 +2804,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="0">
-        <v>-1.0836721459151402</v>
+        <v>1.0836721459151402</v>
       </c>
     </row>
     <row r="339">
@@ -2804,7 +2812,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="0">
-        <v>2.6113625426123832</v>
+        <v>-2.6113625426123832</v>
       </c>
     </row>
     <row r="340">
@@ -2812,7 +2820,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="0">
-        <v>-1.1228215550429193</v>
+        <v>1.1228215550429193</v>
       </c>
     </row>
     <row r="341">
@@ -2820,7 +2828,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="0">
-        <v>-7.384357195330999</v>
+        <v>7.384357195330999</v>
       </c>
     </row>
     <row r="342">
@@ -2828,7 +2836,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="0">
-        <v>-13.333958578614899</v>
+        <v>13.333958578614899</v>
       </c>
     </row>
     <row r="343">
@@ -2836,7 +2844,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="0">
-        <v>-22.109265017024089</v>
+        <v>22.109265017024089</v>
       </c>
     </row>
     <row r="344">
@@ -2844,7 +2852,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="0">
-        <v>-26.245960599008381</v>
+        <v>26.245960599008381</v>
       </c>
     </row>
     <row r="345">
@@ -2852,7 +2860,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="0">
-        <v>-22.872578120778293</v>
+        <v>22.872578120778293</v>
       </c>
     </row>
     <row r="346">
@@ -2860,7 +2868,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="0">
-        <v>-33.099457003182096</v>
+        <v>33.099457003182096</v>
       </c>
     </row>
     <row r="347">
@@ -2868,7 +2876,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="0">
-        <v>-27.93230416647344</v>
+        <v>27.93230416647344</v>
       </c>
     </row>
     <row r="348">
@@ -2876,7 +2884,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="0">
-        <v>-2.7921359483833754</v>
+        <v>2.7921359483833754</v>
       </c>
     </row>
     <row r="349">
@@ -2884,7 +2892,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="0">
-        <v>1.8366670986297706</v>
+        <v>-1.8366670986297706</v>
       </c>
     </row>
     <row r="350">
@@ -2892,7 +2900,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="0">
-        <v>-2.048527650892106</v>
+        <v>2.048527650892106</v>
       </c>
     </row>
     <row r="351">
@@ -2900,7 +2908,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="0">
-        <v>4.8587690324805424</v>
+        <v>-4.8587690324805424</v>
       </c>
     </row>
     <row r="352">
@@ -2908,7 +2916,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="0">
-        <v>5.6950769356045292</v>
+        <v>-5.6950769356045292</v>
       </c>
     </row>
     <row r="353">
@@ -2916,7 +2924,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="0">
-        <v>11.301568726526849</v>
+        <v>-11.301568726526849</v>
       </c>
     </row>
     <row r="354">
@@ -2924,7 +2932,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="0">
-        <v>14.921379430912792</v>
+        <v>-14.921379430912792</v>
       </c>
     </row>
     <row r="355">
@@ -2932,7 +2940,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="0">
-        <v>14.167941142979117</v>
+        <v>-14.167941142979117</v>
       </c>
     </row>
     <row r="356">
@@ -2940,7 +2948,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="0">
-        <v>11.885723201761373</v>
+        <v>-11.885723201761373</v>
       </c>
     </row>
     <row r="357">
@@ -2948,7 +2956,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="0">
-        <v>7.7028991640481435</v>
+        <v>-7.7028991640481435</v>
       </c>
     </row>
     <row r="358">
@@ -2956,7 +2964,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="0">
-        <v>3.6771409669458346</v>
+        <v>-3.6771409669458346</v>
       </c>
     </row>
     <row r="359">
@@ -2964,7 +2972,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="0">
-        <v>-0.37433827453340518</v>
+        <v>0.37433827453340518</v>
       </c>
     </row>
     <row r="360">
@@ -2972,7 +2980,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="0">
-        <v>2.7910096144694849</v>
+        <v>-2.7910096144694849</v>
       </c>
     </row>
     <row r="361">
@@ -2980,7 +2988,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="0">
-        <v>-3.5024443087585833</v>
+        <v>3.5024443087585833</v>
       </c>
     </row>
     <row r="362">
@@ -2988,7 +2996,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="0">
-        <v>-8.0386843449117524</v>
+        <v>8.0386843449117524</v>
       </c>
     </row>
     <row r="363">
@@ -2996,7 +3004,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="0">
-        <v>-3.5468035291454401</v>
+        <v>3.5468035291454401</v>
       </c>
     </row>
     <row r="364">
@@ -3004,7 +3012,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="0">
-        <v>-1.2909522123946382</v>
+        <v>1.2909522123946382</v>
       </c>
     </row>
     <row r="365">
@@ -3012,7 +3020,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="0">
-        <v>3.2719243689463644</v>
+        <v>-3.2719243689463644</v>
       </c>
     </row>
     <row r="366">
@@ -3020,7 +3028,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="0">
-        <v>9.6522022478117915</v>
+        <v>-9.6522022478117915</v>
       </c>
     </row>
     <row r="367">
@@ -3028,7 +3036,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="0">
-        <v>4.1483579292610466</v>
+        <v>-4.1483579292610466</v>
       </c>
     </row>
     <row r="368">
@@ -3036,7 +3044,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="0">
-        <v>3.3109354333647385</v>
+        <v>-3.3109354333647385</v>
       </c>
     </row>
     <row r="369">
@@ -3044,7 +3052,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="0">
-        <v>12.175598057424551</v>
+        <v>-12.175598057424551</v>
       </c>
     </row>
     <row r="370">
@@ -3052,7 +3060,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="0">
-        <v>14.04500598260984</v>
+        <v>-14.04500598260984</v>
       </c>
     </row>
     <row r="371">
@@ -3060,7 +3068,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="0">
-        <v>11.670915962564203</v>
+        <v>-11.670915962564203</v>
       </c>
     </row>
     <row r="372">
@@ -3068,7 +3076,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="0">
-        <v>9.2720061474020188</v>
+        <v>-9.2720061474020188</v>
       </c>
     </row>
     <row r="373">
@@ -3076,7 +3084,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="0">
-        <v>9.3176601203487817</v>
+        <v>-9.3176601203487817</v>
       </c>
     </row>
     <row r="374">
@@ -3084,7 +3092,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="0">
-        <v>11.092096744105262</v>
+        <v>-11.092096744105262</v>
       </c>
     </row>
     <row r="375">
@@ -3092,7 +3100,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="0">
-        <v>5.3415180322292235</v>
+        <v>-5.3415180322292235</v>
       </c>
     </row>
     <row r="376">
@@ -3100,7 +3108,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="0">
-        <v>8.5961899864607236</v>
+        <v>-8.5961899864607236</v>
       </c>
     </row>
     <row r="377">
@@ -3108,7 +3116,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="0">
-        <v>11.325479243123079</v>
+        <v>-11.325479243123079</v>
       </c>
     </row>
     <row r="378">
@@ -3116,7 +3124,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="0">
-        <v>4.5990204964438819</v>
+        <v>-4.5990204964438819</v>
       </c>
     </row>
     <row r="379">
@@ -3124,7 +3132,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="0">
-        <v>9.6184713513086404</v>
+        <v>-9.6184713513086404</v>
       </c>
     </row>
     <row r="380">
@@ -3132,7 +3140,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="0">
-        <v>13.224508314205474</v>
+        <v>-13.224508314205474</v>
       </c>
     </row>
     <row r="381">
@@ -3140,7 +3148,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="0">
-        <v>9.8547229792626325</v>
+        <v>-9.8547229792626325</v>
       </c>
     </row>
     <row r="382">
@@ -3148,7 +3156,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="0">
-        <v>9.0394237615899087</v>
+        <v>-9.0394237615899087</v>
       </c>
     </row>
     <row r="383">
@@ -3156,7 +3164,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="0">
-        <v>2.3257890460661037</v>
+        <v>-2.3257890460661037</v>
       </c>
     </row>
     <row r="384">
@@ -3164,7 +3172,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="0">
-        <v>2.251798160886342</v>
+        <v>-2.251798160886342</v>
       </c>
     </row>
     <row r="385">
@@ -3172,7 +3180,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="0">
-        <v>4.7890966643496027</v>
+        <v>-4.7890966643496027</v>
       </c>
     </row>
     <row r="386">
@@ -3180,7 +3188,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="0">
-        <v>-2.6230398707983915</v>
+        <v>2.6230398707983915</v>
       </c>
     </row>
     <row r="387">
@@ -3188,7 +3196,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="0">
-        <v>1.3646465734465256</v>
+        <v>-1.3646465734465256</v>
       </c>
     </row>
     <row r="388">
@@ -3196,7 +3204,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="0">
-        <v>8.0330235693074918</v>
+        <v>-8.0330235693074918</v>
       </c>
     </row>
     <row r="389">
@@ -3204,7 +3212,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="0">
-        <v>2.2274449036487178</v>
+        <v>-2.2274449036487178</v>
       </c>
     </row>
     <row r="390">
@@ -3212,7 +3220,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="0">
-        <v>-1.8623808315720902</v>
+        <v>1.8623808315720902</v>
       </c>
     </row>
     <row r="391">
@@ -3220,7 +3228,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="0">
-        <v>7.0707466908458176</v>
+        <v>-7.0707466908458176</v>
       </c>
     </row>
     <row r="392">
@@ -3228,7 +3236,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="0">
-        <v>8.033023569307689</v>
+        <v>-8.033023569307689</v>
       </c>
     </row>
     <row r="393">
@@ -3236,7 +3244,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="0">
-        <v>1.3646465734464521</v>
+        <v>-1.3646465734464521</v>
       </c>
     </row>
     <row r="394">
@@ -3244,7 +3252,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="0">
-        <v>6.2739159850613104</v>
+        <v>-6.2739159850613104</v>
       </c>
     </row>
     <row r="395">
@@ -3252,7 +3260,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="0">
-        <v>10.594132398314045</v>
+        <v>-10.594132398314045</v>
       </c>
     </row>
     <row r="396">
@@ -3260,7 +3268,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="0">
-        <v>7.2470605553760334</v>
+        <v>-7.2470605553760334</v>
       </c>
     </row>
     <row r="397">
@@ -3268,7 +3276,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="0">
-        <v>4.7251021040393155</v>
+        <v>-4.7251021040393155</v>
       </c>
     </row>
     <row r="398">
@@ -3276,7 +3284,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="0">
-        <v>11.535891318609117</v>
+        <v>-11.535891318609117</v>
       </c>
     </row>
     <row r="399">
@@ -3284,7 +3292,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="0">
-        <v>9.9985355533631353</v>
+        <v>-9.9985355533631353</v>
       </c>
     </row>
     <row r="400">
@@ -3292,7 +3300,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="0">
-        <v>3.9812957261645723</v>
+        <v>-3.9812957261645723</v>
       </c>
     </row>
     <row r="401">
@@ -3300,7 +3308,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="0">
-        <v>3.9962123465648336</v>
+        <v>-3.9962123465648336</v>
       </c>
     </row>
     <row r="402">
@@ -3308,7 +3316,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="0">
-        <v>4.8051953498982929</v>
+        <v>-4.8051953498982929</v>
       </c>
     </row>
     <row r="403">
@@ -3316,7 +3324,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="0">
-        <v>9.1073645360020539</v>
+        <v>-9.1073645360020539</v>
       </c>
     </row>
     <row r="404">
@@ -3324,7 +3332,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="0">
-        <v>8.309068309381205</v>
+        <v>-8.309068309381205</v>
       </c>
     </row>
     <row r="405">
@@ -3332,7 +3340,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="0">
-        <v>1.5417527213138158</v>
+        <v>-1.5417527213138158</v>
       </c>
     </row>
     <row r="406">
@@ -3340,7 +3348,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="0">
-        <v>3.9812957261645723</v>
+        <v>-3.9812957261645723</v>
       </c>
     </row>
     <row r="407">
@@ -3348,7 +3356,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="0">
-        <v>12.687972369414933</v>
+        <v>-12.687972369414933</v>
       </c>
     </row>
     <row r="408">
@@ -3356,7 +3364,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="0">
-        <v>11.050817373494343</v>
+        <v>-11.050817373494343</v>
       </c>
     </row>
     <row r="409">
@@ -3364,7 +3372,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="0">
-        <v>12.887299208359916</v>
+        <v>-12.887299208359916</v>
       </c>
     </row>
     <row r="410">
@@ -3372,7 +3380,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="0">
-        <v>8.6143765439237434</v>
+        <v>-8.6143765439237434</v>
       </c>
     </row>
     <row r="411">
@@ -3380,7 +3388,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="0">
-        <v>2.5039283585145471</v>
+        <v>-2.5039283585145471</v>
       </c>
     </row>
     <row r="412">
@@ -3388,7 +3396,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="0">
-        <v>3.3544959598919033</v>
+        <v>-3.3544959598919033</v>
       </c>
     </row>
     <row r="413">
@@ -3396,7 +3404,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="0">
-        <v>2.4780045851760168</v>
+        <v>-2.4780045851760168</v>
       </c>
     </row>
     <row r="414">
@@ -3404,7 +3412,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="0">
-        <v>3.3119423987850349</v>
+        <v>-3.3119423987850349</v>
       </c>
     </row>
     <row r="415">
@@ -3412,7 +3420,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="0">
-        <v>10.217194854626214</v>
+        <v>-10.217194854626214</v>
       </c>
     </row>
     <row r="416">
@@ -3420,7 +3428,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="0">
-        <v>13.088890759500694</v>
+        <v>-13.088890759500694</v>
       </c>
     </row>
     <row r="417">
@@ -3428,7 +3436,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="0">
-        <v>10.439430707051523</v>
+        <v>-10.439430707051523</v>
       </c>
     </row>
     <row r="418">
@@ -3436,7 +3444,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="0">
-        <v>-0.78267320980429544</v>
+        <v>0.78267320980429544</v>
       </c>
     </row>
     <row r="419">
@@ -3444,7 +3452,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="0">
-        <v>-8.9888268571845469</v>
+        <v>8.9888268571845469</v>
       </c>
     </row>
     <row r="420">
@@ -3452,7 +3460,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="0">
-        <v>-4.989562505308581</v>
+        <v>4.989562505308581</v>
       </c>
     </row>
     <row r="421">
@@ -3460,7 +3468,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="0">
-        <v>-4.2017025844289906</v>
+        <v>4.2017025844289906</v>
       </c>
     </row>
     <row r="422">
@@ -3468,7 +3476,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="0">
-        <v>1.4409186706161006</v>
+        <v>-1.4409186706161006</v>
       </c>
     </row>
     <row r="423">
@@ -3476,7 +3484,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="0">
-        <v>9.0168621303796748</v>
+        <v>-9.0168621303796748</v>
       </c>
     </row>
     <row r="424">
@@ -3484,7 +3492,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="0">
-        <v>2.3257890460661037</v>
+        <v>-2.3257890460661037</v>
       </c>
     </row>
     <row r="425">
@@ -3492,7 +3500,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="0">
-        <v>5.5616248430591195</v>
+        <v>-5.5616248430591195</v>
       </c>
     </row>
     <row r="426">
@@ -3500,7 +3508,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="0">
-        <v>4.8537325466819441</v>
+        <v>-4.8537325466819441</v>
       </c>
     </row>
     <row r="427">
@@ -3508,7 +3516,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="0">
-        <v>-1.0203254099336245</v>
+        <v>1.0203254099336245</v>
       </c>
     </row>
     <row r="428">
@@ -3516,7 +3524,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="0">
-        <v>-4.2187946378285597</v>
+        <v>4.2187946378285597</v>
       </c>
     </row>
     <row r="429">
@@ -3524,7 +3532,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="0">
-        <v>-7.3452224724650401</v>
+        <v>7.3452224724650401</v>
       </c>
     </row>
     <row r="430">
@@ -3532,7 +3540,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="0">
-        <v>-2.6945575922408143</v>
+        <v>2.6945575922408143</v>
       </c>
     </row>
     <row r="431">
@@ -3540,7 +3548,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="0">
-        <v>0.41478299963234622</v>
+        <v>-0.41478299963234622</v>
       </c>
     </row>
     <row r="432">
@@ -3548,7 +3556,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="0">
-        <v>4.4297598855655238</v>
+        <v>-4.4297598855655238</v>
       </c>
     </row>
     <row r="433">
@@ -3556,7 +3564,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="0">
-        <v>-0.37433827453333163</v>
+        <v>0.37433827453333163</v>
       </c>
     </row>
     <row r="434">
@@ -3564,7 +3572,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="0">
-        <v>-2.7418221314770985</v>
+        <v>2.7418221314770985</v>
       </c>
     </row>
     <row r="435">
@@ -3572,7 +3580,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="0">
-        <v>2.6913647039555237</v>
+        <v>-2.6913647039555237</v>
       </c>
     </row>
     <row r="436">
@@ -3580,7 +3588,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="0">
-        <v>6.7279398602998173</v>
+        <v>-6.7279398602998173</v>
       </c>
     </row>
     <row r="437">
@@ -3588,7 +3596,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="0">
-        <v>5.1280730805204708</v>
+        <v>-5.1280730805204708</v>
       </c>
     </row>
     <row r="438">
@@ -3596,7 +3604,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="0">
-        <v>1.1469262923541386</v>
+        <v>-1.1469262923541386</v>
       </c>
     </row>
     <row r="439">
@@ -3604,7 +3612,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="0">
-        <v>-0.45050734955419858</v>
+        <v>0.45050734955419858</v>
       </c>
     </row>
     <row r="440">
@@ -3612,7 +3620,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="0">
-        <v>-2.7696538123847518</v>
+        <v>2.7696538123847518</v>
       </c>
     </row>
     <row r="441">
@@ -3620,7 +3628,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="0">
-        <v>1.0203107105046978</v>
+        <v>-1.0203107105046978</v>
       </c>
     </row>
     <row r="442">
@@ -3628,7 +3636,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="0">
-        <v>3.3899530286025779</v>
+        <v>-3.3899530286025779</v>
       </c>
     </row>
     <row r="443">
@@ -3636,7 +3644,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="0">
-        <v>2.5582393075923373</v>
+        <v>-2.5582393075923373</v>
       </c>
     </row>
     <row r="444">
@@ -3644,7 +3652,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="0">
-        <v>1.8042500188305559</v>
+        <v>-1.8042500188305559</v>
       </c>
     </row>
     <row r="445">
@@ -3652,7 +3660,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="0">
-        <v>1.7509484813318132</v>
+        <v>-1.7509484813318132</v>
       </c>
     </row>
     <row r="446">
@@ -3660,7 +3668,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="0">
-        <v>1.00137499219797</v>
+        <v>-1.00137499219797</v>
       </c>
     </row>
     <row r="447">
@@ -3668,7 +3676,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="0">
-        <v>-23.955758976134355</v>
+        <v>23.955758976134355</v>
       </c>
     </row>
     <row r="448">
@@ -3676,7 +3684,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="0">
-        <v>-19.16978872190921</v>
+        <v>19.16978872190921</v>
       </c>
     </row>
     <row r="449">
@@ -3684,7 +3692,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="0">
-        <v>-2.2056516157033159</v>
+        <v>2.2056516157033159</v>
       </c>
     </row>
     <row r="450">
@@ -3692,7 +3700,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="0">
-        <v>-4.323865708273253</v>
+        <v>4.323865708273253</v>
       </c>
     </row>
     <row r="451">
@@ -3700,7 +3708,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="0">
-        <v>3.4334592129747237</v>
+        <v>-3.4334592129747237</v>
       </c>
     </row>
     <row r="452">
@@ -3708,7 +3716,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="0">
-        <v>3.4712771173756511</v>
+        <v>-3.4712771173756511</v>
       </c>
     </row>
     <row r="453">
@@ -3716,7 +3724,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="0">
-        <v>3.4334592129747237</v>
+        <v>-3.4334592129747237</v>
       </c>
     </row>
     <row r="454">
@@ -3724,7 +3732,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="0">
-        <v>5.6588804566949751</v>
+        <v>-5.6588804566949751</v>
       </c>
     </row>
     <row r="455">
@@ -3732,7 +3740,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="0">
-        <v>6.3943268937639628</v>
+        <v>-6.3943268937639628</v>
       </c>
     </row>
     <row r="456">
@@ -3740,7 +3748,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="0">
-        <v>6.4653191707192388</v>
+        <v>-6.4653191707192388</v>
       </c>
     </row>
     <row r="457">
@@ -3748,7 +3756,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="0">
-        <v>3.5221822414240513</v>
+        <v>-3.5221822414240513</v>
       </c>
     </row>
     <row r="458">
@@ -3756,7 +3764,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="0">
-        <v>3.5221822414240513</v>
+        <v>-3.5221822414240513</v>
       </c>
     </row>
     <row r="459">
@@ -3764,7 +3772,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="0">
-        <v>6.4653191707193116</v>
+        <v>-6.4653191707193116</v>
       </c>
     </row>
     <row r="460">
@@ -3772,7 +3780,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="0">
-        <v>3.5736409100751563</v>
+        <v>-3.5736409100751563</v>
       </c>
     </row>
     <row r="461">
@@ -3780,7 +3788,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="0">
-        <v>3.5221822414240513</v>
+        <v>-3.5221822414240513</v>
       </c>
     </row>
     <row r="462">
@@ -3788,7 +3796,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="0">
-        <v>9.5526707227811372</v>
+        <v>-9.5526707227811372</v>
       </c>
     </row>
     <row r="463">
@@ -3796,7 +3804,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="0">
-        <v>3.6256569975535236</v>
+        <v>-3.6256569975535236</v>
       </c>
     </row>
     <row r="464">
@@ -3804,7 +3812,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="0">
-        <v>3.5736409100751563</v>
+        <v>-3.5736409100751563</v>
       </c>
     </row>
     <row r="465">
@@ -3812,7 +3820,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="0">
-        <v>3.6256569975535236</v>
+        <v>-3.6256569975535236</v>
       </c>
     </row>
     <row r="466">
@@ -3820,7 +3828,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="0">
-        <v>3.5736409100751563</v>
+        <v>-3.5736409100751563</v>
       </c>
     </row>
     <row r="467">
@@ -3828,7 +3836,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="0">
-        <v>6.6090406255259015</v>
+        <v>-6.6090406255259015</v>
       </c>
     </row>
     <row r="468">
@@ -3836,7 +3844,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="0">
-        <v>6.6090406255258536</v>
+        <v>-6.6090406255258536</v>
       </c>
     </row>
     <row r="469">
@@ -3844,7 +3852,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="0">
-        <v>3.6782343881066533</v>
+        <v>-3.6782343881066533</v>
       </c>
     </row>
     <row r="470">
@@ -3852,7 +3860,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="0">
-        <v>-2.1918885999785869</v>
+        <v>2.1918885999785869</v>
       </c>
     </row>
     <row r="471">
@@ -3860,7 +3868,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="0">
-        <v>-7.1135149400939106</v>
+        <v>7.1135149400939106</v>
       </c>
     </row>
     <row r="472">
@@ -3868,7 +3876,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="0">
-        <v>-15.045273976206824</v>
+        <v>15.045273976206824</v>
       </c>
     </row>
     <row r="473">
@@ -3876,7 +3884,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="0">
-        <v>-12.203915772418888</v>
+        <v>12.203915772418888</v>
       </c>
     </row>
     <row r="474">
@@ -3884,7 +3892,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="0">
-        <v>-14.63583127929286</v>
+        <v>14.63583127929286</v>
       </c>
     </row>
     <row r="475">
@@ -3892,7 +3900,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="0">
-        <v>-16.683421318239805</v>
+        <v>16.683421318239805</v>
       </c>
     </row>
     <row r="476">
@@ -3900,7 +3908,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="0">
-        <v>-14.058325340578822</v>
+        <v>14.058325340578822</v>
       </c>
     </row>
     <row r="477">
@@ -3908,7 +3916,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="0">
-        <v>-22.269134639041944</v>
+        <v>22.269134639041944</v>
       </c>
     </row>
     <row r="478">
@@ -3916,7 +3924,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="0">
-        <v>-25.057418314584705</v>
+        <v>25.057418314584705</v>
       </c>
     </row>
     <row r="479">
@@ -3924,7 +3932,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="0">
-        <v>-12.756652290891779</v>
+        <v>12.756652290891779</v>
       </c>
     </row>
     <row r="480">
@@ -3932,7 +3940,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="0">
-        <v>-6.7864397972760653</v>
+        <v>6.7864397972760653</v>
       </c>
     </row>
     <row r="481">
@@ -3940,7 +3948,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="0">
-        <v>-18.495115655996063</v>
+        <v>18.495115655996063</v>
       </c>
     </row>
     <row r="482">
@@ -3948,7 +3956,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="0">
-        <v>-27.716186791197192</v>
+        <v>27.716186791197192</v>
       </c>
     </row>
     <row r="483">
@@ -3956,7 +3964,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="0">
-        <v>-32.442416456803379</v>
+        <v>32.442416456803379</v>
       </c>
     </row>
     <row r="484">
@@ -3964,7 +3972,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="0">
-        <v>-26.445302430620462</v>
+        <v>26.445302430620462</v>
       </c>
     </row>
     <row r="485">
@@ -3972,7 +3980,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="0">
-        <v>-15.049052264136547</v>
+        <v>15.049052264136547</v>
       </c>
     </row>
     <row r="486">
@@ -3980,7 +3988,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="0">
-        <v>-18.600231349671166</v>
+        <v>18.600231349671166</v>
       </c>
     </row>
     <row r="487">
@@ -3988,7 +3996,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="0">
-        <v>-32.33552420813173</v>
+        <v>32.33552420813173</v>
       </c>
     </row>
     <row r="488">
@@ -3996,7 +4004,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="0">
-        <v>-27.027217230453608</v>
+        <v>27.027217230453608</v>
       </c>
     </row>
     <row r="489">
@@ -4004,7 +4012,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="0">
-        <v>-9.556132793701611</v>
+        <v>9.556132793701611</v>
       </c>
     </row>
     <row r="490">
@@ -4012,7 +4020,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="0">
-        <v>-6.8600770372473061</v>
+        <v>6.8600770372473061</v>
       </c>
     </row>
     <row r="491">
@@ -4020,7 +4028,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="0">
-        <v>-11.153013606560901</v>
+        <v>11.153013606560901</v>
       </c>
     </row>
     <row r="492">
@@ -4028,7 +4036,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="0">
-        <v>-8.8179815371048189</v>
+        <v>8.8179815371048189</v>
       </c>
     </row>
     <row r="493">
@@ -4036,7 +4044,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="0">
-        <v>-5.3464477470247234</v>
+        <v>5.3464477470247234</v>
       </c>
     </row>
     <row r="494">
@@ -4044,7 +4052,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="0">
-        <v>-1.3421965942654193</v>
+        <v>1.3421965942654193</v>
       </c>
     </row>
     <row r="495">
@@ -4052,7 +4060,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -4060,7 +4068,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -4068,7 +4076,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -4076,7 +4084,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -4084,7 +4092,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -4092,7 +4100,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -4100,7 +4108,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -4108,7 +4116,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -4116,7 +4124,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="0">
-        <v>0.10592015440114194</v>
+        <v>-0.10592015440114194</v>
       </c>
     </row>
     <row r="504">
@@ -4124,7 +4132,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="0">
-        <v>5.2077499850349671</v>
+        <v>-5.2077499850349671</v>
       </c>
     </row>
     <row r="505">
@@ -4132,7 +4140,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="0">
-        <v>13.849998671104661</v>
+        <v>-13.849998671104661</v>
       </c>
     </row>
     <row r="506">
@@ -4140,7 +4148,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="0">
-        <v>20.912151487306655</v>
+        <v>-20.912151487306655</v>
       </c>
     </row>
     <row r="507">
@@ -4148,7 +4156,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="0">
-        <v>25.178508015454486</v>
+        <v>-25.178508015454486</v>
       </c>
     </row>
     <row r="508">
@@ -4156,7 +4164,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="0">
-        <v>22.098684738122394</v>
+        <v>-22.098684738122394</v>
       </c>
     </row>
     <row r="509">
@@ -4164,7 +4172,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="0">
-        <v>11.067723821283534</v>
+        <v>-11.067723821283534</v>
       </c>
     </row>
     <row r="510">
@@ -4172,7 +4180,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="0">
-        <v>-2.1155000482651527</v>
+        <v>2.1155000482651527</v>
       </c>
     </row>
     <row r="511">
@@ -4180,7 +4188,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="0">
-        <v>-9.5363029174030114</v>
+        <v>9.5363029174030114</v>
       </c>
     </row>
     <row r="512">
@@ -4188,7 +4196,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="0">
-        <v>-11.57725014538188</v>
+        <v>11.57725014538188</v>
       </c>
     </row>
     <row r="513">
@@ -4196,7 +4204,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="0">
-        <v>-18.416301665457862</v>
+        <v>18.416301665457862</v>
       </c>
     </row>
     <row r="514">
@@ -4204,7 +4212,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="0">
-        <v>-20.378228641125773</v>
+        <v>20.378228641125773</v>
       </c>
     </row>
     <row r="515">
@@ -4212,7 +4220,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="0">
-        <v>-12.633962673697123</v>
+        <v>12.633962673697123</v>
       </c>
     </row>
     <row r="516">
@@ -4220,7 +4228,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="0">
-        <v>-2.8644184942889637</v>
+        <v>2.8644184942889637</v>
       </c>
     </row>
     <row r="517">
@@ -4228,7 +4236,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="0">
-        <v>3.8455200136624659</v>
+        <v>-3.8455200136624659</v>
       </c>
     </row>
     <row r="518">
@@ -4236,7 +4244,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="0">
-        <v>10.714272624989059</v>
+        <v>-10.714272624989059</v>
       </c>
     </row>
     <row r="519">
@@ -4244,7 +4252,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="0">
-        <v>16.838522687818539</v>
+        <v>-16.838522687818539</v>
       </c>
     </row>
     <row r="520">
@@ -4252,7 +4260,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="0">
-        <v>22.141122523831175</v>
+        <v>-22.141122523831175</v>
       </c>
     </row>
     <row r="521">
@@ -4260,7 +4268,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="0">
-        <v>22.197872662950662</v>
+        <v>-22.197872662950662</v>
       </c>
     </row>
     <row r="522">
@@ -4268,7 +4276,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="0">
-        <v>14.868322984570607</v>
+        <v>-14.868322984570607</v>
       </c>
     </row>
     <row r="523">
@@ -4276,7 +4284,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="0">
-        <v>4.5058024257405433</v>
+        <v>-4.5058024257405433</v>
       </c>
     </row>
     <row r="524">
@@ -4284,7 +4292,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="0">
-        <v>-8.4511594832796604</v>
+        <v>8.4511594832796604</v>
       </c>
     </row>
     <row r="525">
@@ -4292,7 +4300,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="0">
-        <v>-17.668543145967963</v>
+        <v>17.668543145967963</v>
       </c>
     </row>
     <row r="526">
@@ -4300,7 +4308,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="0">
-        <v>-19.236292251513646</v>
+        <v>19.236292251513646</v>
       </c>
     </row>
     <row r="527">
@@ -4308,7 +4316,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="0">
-        <v>-17.895761157606294</v>
+        <v>17.895761157606294</v>
       </c>
     </row>
     <row r="528">
@@ -4316,7 +4324,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="0">
-        <v>-12.97338660398295</v>
+        <v>12.97338660398295</v>
       </c>
     </row>
     <row r="529">
@@ -4324,7 +4332,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="0">
-        <v>-5.2298041096860333</v>
+        <v>5.2298041096860333</v>
       </c>
     </row>
     <row r="530">
@@ -4332,7 +4340,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="0">
-        <v>-3.2703726698593636</v>
+        <v>3.2703726698593636</v>
       </c>
     </row>
     <row r="531">
@@ -4340,7 +4348,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="0">
-        <v>-1.2237004763959249</v>
+        <v>1.2237004763959249</v>
       </c>
     </row>
     <row r="532">
@@ -4348,7 +4356,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="0">
-        <v>-0.044867805367528629</v>
+        <v>0.044867805367528629</v>
       </c>
     </row>
     <row r="533">
@@ -4356,7 +4364,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="0">
-        <v>1.2523998959219298</v>
+        <v>-1.2523998959219298</v>
       </c>
     </row>
     <row r="534">
@@ -4364,7 +4372,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="0">
-        <v>7.9963179338139305</v>
+        <v>-7.9963179338139305</v>
       </c>
     </row>
     <row r="535">
@@ -4372,7 +4380,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="0">
-        <v>14.658104958910696</v>
+        <v>-14.658104958910696</v>
       </c>
     </row>
     <row r="536">
@@ -4380,7 +4388,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="0">
-        <v>20.872625922508014</v>
+        <v>-20.872625922508014</v>
       </c>
     </row>
     <row r="537">
@@ -4388,7 +4396,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="0">
-        <v>25.196868768881469</v>
+        <v>-25.196868768881469</v>
       </c>
     </row>
     <row r="538">
@@ -4396,7 +4404,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="0">
-        <v>19.799708190138205</v>
+        <v>-19.799708190138205</v>
       </c>
     </row>
     <row r="539">
@@ -4404,7 +4412,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="0">
-        <v>7.6834128262278343</v>
+        <v>-7.6834128262278343</v>
       </c>
     </row>
     <row r="540">
@@ -4412,7 +4420,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="0">
-        <v>-1.140559561990353</v>
+        <v>1.140559561990353</v>
       </c>
     </row>
     <row r="541">
@@ -4420,7 +4428,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="0">
-        <v>-10.229999706028156</v>
+        <v>10.229999706028156</v>
       </c>
     </row>
     <row r="542">
@@ -4428,7 +4436,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="0">
-        <v>-17.917148880967233</v>
+        <v>17.917148880967233</v>
       </c>
     </row>
     <row r="543">
@@ -4436,7 +4444,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="0">
-        <v>-19.878859198166367</v>
+        <v>19.878859198166367</v>
       </c>
     </row>
     <row r="544">
@@ -4444,7 +4452,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="0">
-        <v>-17.908766286995501</v>
+        <v>17.908766286995501</v>
       </c>
     </row>
     <row r="545">
@@ -4452,7 +4460,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="0">
-        <v>-10.464000595787972</v>
+        <v>10.464000595787972</v>
       </c>
     </row>
     <row r="546">
@@ -4460,7 +4468,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="0">
-        <v>-3.5620547867620487</v>
+        <v>3.5620547867620487</v>
       </c>
     </row>
     <row r="547">
@@ -4468,7 +4476,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="0">
-        <v>-0.81073593275224798</v>
+        <v>0.81073593275224798</v>
       </c>
     </row>
     <row r="548">
@@ -4476,7 +4484,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="0">
-        <v>1.5835736350585796</v>
+        <v>-1.5835736350585796</v>
       </c>
     </row>
     <row r="549">
@@ -4484,7 +4492,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="0">
-        <v>11.330455829860536</v>
+        <v>-11.330455829860536</v>
       </c>
     </row>
     <row r="550">
@@ -4492,7 +4500,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="0">
-        <v>15.683137778390043</v>
+        <v>-15.683137778390043</v>
       </c>
     </row>
     <row r="551">
@@ -4500,7 +4508,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="0">
-        <v>19.409887222636765</v>
+        <v>-19.409887222636765</v>
       </c>
     </row>
     <row r="552">
@@ -4508,7 +4516,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="0">
-        <v>23.741332556113505</v>
+        <v>-23.741332556113505</v>
       </c>
     </row>
     <row r="553">
@@ -4516,7 +4524,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="0">
-        <v>26.328557910908604</v>
+        <v>-26.328557910908604</v>
       </c>
     </row>
     <row r="554">
@@ -4524,7 +4532,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="0">
-        <v>13.933934436252821</v>
+        <v>-13.933934436252821</v>
       </c>
     </row>
     <row r="555">
@@ -4532,7 +4540,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="0">
-        <v>-12.470343703494745</v>
+        <v>12.470343703494745</v>
       </c>
     </row>
     <row r="556">
@@ -4540,7 +4548,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="0">
-        <v>-23.314492557303126</v>
+        <v>23.314492557303126</v>
       </c>
     </row>
     <row r="557">
@@ -4548,7 +4556,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="0">
-        <v>-22.213197372369642</v>
+        <v>22.213197372369642</v>
       </c>
     </row>
     <row r="558">
@@ -4556,7 +4564,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="0">
-        <v>-17.325418554140391</v>
+        <v>17.325418554140391</v>
       </c>
     </row>
     <row r="559">
@@ -4564,7 +4572,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="0">
-        <v>-12.002188547376381</v>
+        <v>12.002188547376381</v>
       </c>
     </row>
     <row r="560">
@@ -4572,7 +4580,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="0">
-        <v>-6.4621298390550717</v>
+        <v>6.4621298390550717</v>
       </c>
     </row>
     <row r="561">
@@ -4580,7 +4588,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="0">
-        <v>-1.9213773316272413</v>
+        <v>1.9213773316272413</v>
       </c>
     </row>
     <row r="562">
@@ -4588,7 +4596,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -4596,7 +4604,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -4604,7 +4612,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -4612,7 +4620,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -4620,7 +4628,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -4628,7 +4636,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -4636,7 +4644,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -4644,7 +4652,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -4652,7 +4660,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="0">
-        <v>0.22839809206380168</v>
+        <v>-0.22839809206380168</v>
       </c>
     </row>
     <row r="571">
@@ -4660,7 +4668,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="0">
-        <v>9.5757050644259749</v>
+        <v>-9.5757050644259749</v>
       </c>
     </row>
     <row r="572">
@@ -4668,7 +4676,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="0">
-        <v>20.252578698278842</v>
+        <v>-20.252578698278842</v>
       </c>
     </row>
     <row r="573">
@@ -4676,7 +4684,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="0">
-        <v>27.225218536244739</v>
+        <v>-27.225218536244739</v>
       </c>
     </row>
     <row r="574">
@@ -4684,7 +4692,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="0">
-        <v>27.561185676460113</v>
+        <v>-27.561185676460113</v>
       </c>
     </row>
     <row r="575">
@@ -4692,7 +4700,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="0">
-        <v>42.019464385781816</v>
+        <v>-42.019464385781816</v>
       </c>
     </row>
     <row r="576">
@@ -4700,7 +4708,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="0">
-        <v>44.225081697888321</v>
+        <v>-44.225081697888321</v>
       </c>
     </row>
     <row r="577">
@@ -4708,7 +4716,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="0">
-        <v>26.741592496232556</v>
+        <v>-26.741592496232556</v>
       </c>
     </row>
     <row r="578">
@@ -4716,7 +4724,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="0">
-        <v>41.251898693200424</v>
+        <v>-41.251898693200424</v>
       </c>
     </row>
     <row r="579">
@@ -4724,7 +4732,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="0">
-        <v>63.026578297243283</v>
+        <v>-63.026578297243283</v>
       </c>
     </row>
     <row r="580">
@@ -4732,7 +4740,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="0">
-        <v>46.412715568597598</v>
+        <v>-46.412715568597598</v>
       </c>
     </row>
     <row r="581">
@@ -4740,7 +4748,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="0">
-        <v>10.439548529749148</v>
+        <v>-10.439548529749148</v>
       </c>
     </row>
     <row r="582">
@@ -4748,7 +4756,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="0">
-        <v>-3.5549298371253393</v>
+        <v>3.5549298371253393</v>
       </c>
     </row>
     <row r="583">
@@ -4756,7 +4764,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="0">
-        <v>-5.2548767987486453</v>
+        <v>5.2548767987486453</v>
       </c>
     </row>
     <row r="584">
@@ -4764,7 +4772,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="0">
-        <v>-13.439761482347073</v>
+        <v>13.439761482347073</v>
       </c>
     </row>
     <row r="585">
@@ -4772,7 +4780,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="0">
-        <v>-25.446332178825372</v>
+        <v>25.446332178825372</v>
       </c>
     </row>
     <row r="586">
@@ -4780,7 +4788,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="0">
-        <v>-29.772831145189635</v>
+        <v>29.772831145189635</v>
       </c>
     </row>
     <row r="587">
@@ -4788,7 +4796,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="0">
-        <v>-28.5738948063671</v>
+        <v>28.5738948063671</v>
       </c>
     </row>
     <row r="588">
@@ -4796,7 +4804,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="0">
-        <v>-30.21873123330333</v>
+        <v>30.21873123330333</v>
       </c>
     </row>
     <row r="589">
@@ -4804,7 +4812,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="0">
-        <v>-33.613150530315046</v>
+        <v>33.613150530315046</v>
       </c>
     </row>
     <row r="590">
@@ -4812,7 +4820,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="0">
-        <v>-28.348617186445974</v>
+        <v>28.348617186445974</v>
       </c>
     </row>
     <row r="591">
@@ -4820,7 +4828,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="0">
-        <v>-23.090814103723645</v>
+        <v>23.090814103723645</v>
       </c>
     </row>
     <row r="592">
@@ -4828,7 +4836,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="0">
-        <v>-21.699602379376884</v>
+        <v>21.699602379376884</v>
       </c>
     </row>
     <row r="593">
@@ -4836,7 +4844,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="0">
-        <v>-17.634933626160784</v>
+        <v>17.634933626160784</v>
       </c>
     </row>
     <row r="594">
@@ -4844,7 +4852,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="0">
-        <v>-7.3902097152076651</v>
+        <v>7.3902097152076651</v>
       </c>
     </row>
     <row r="595">
@@ -4852,7 +4860,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="0">
-        <v>-1.5262986517707458</v>
+        <v>1.5262986517707458</v>
       </c>
     </row>
     <row r="596">
@@ -4860,7 +4868,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -4868,7 +4876,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -4876,7 +4884,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -4884,7 +4892,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -4892,7 +4900,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -4900,7 +4908,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -4908,7 +4916,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
